--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/103.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/103.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2316495420096373</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.508632142779323</v>
+        <v>-2.491458606284128</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11850480484601</v>
+        <v>0.1171355329267106</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2807626884081572</v>
+        <v>-0.2713034286324715</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2337066392943131</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.616437452156573</v>
+        <v>-2.599293191853862</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06179499024265234</v>
+        <v>0.06066053778390095</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3022794700424752</v>
+        <v>-0.2916284252644238</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2546666858572763</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.734067973715557</v>
+        <v>-2.722115968134002</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06469943250532659</v>
+        <v>0.0663291405535974</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3136105763751006</v>
+        <v>-0.3030455304124707</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2926559003710326</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.892793120711795</v>
+        <v>-2.882173181888258</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02587066238219172</v>
+        <v>0.02803954030870782</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3211925003077557</v>
+        <v>-0.3108549547575529</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3350374649487175</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.971200863390465</v>
+        <v>-2.9632231009386</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0746826141423388</v>
+        <v>0.07729917384558797</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.311515498850471</v>
+        <v>-0.3018354477898026</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3626268465766187</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.867444817386145</v>
+        <v>-2.853475804126584</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1306983390155572</v>
+        <v>0.1362162913780969</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3166126059460545</v>
+        <v>-0.3050527793596486</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3620149800046977</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.684486302061354</v>
+        <v>-2.668158115624132</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1708750338343053</v>
+        <v>0.1746534924267595</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3558774693530642</v>
+        <v>-0.3410301703189862</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3289456251501466</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.474899869831095</v>
+        <v>-2.461380368110298</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1888402473679193</v>
+        <v>0.1975395459803768</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3620437673949871</v>
+        <v>-0.3496837248806877</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2644420883285244</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.064262845241668</v>
+        <v>-2.050401178021215</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2254080415423491</v>
+        <v>0.2376631777002479</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3234394480808955</v>
+        <v>-0.3102072189988464</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1718245200807441</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.697272964121684</v>
+        <v>-1.682362843257901</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2140342407623513</v>
+        <v>0.2245712303738508</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2812512348702323</v>
+        <v>-0.2722134302821796</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.05795499315420509</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.274378363691651</v>
+        <v>-1.253853313077725</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1421685072624812</v>
+        <v>0.1523980968528996</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2352217412374099</v>
+        <v>-0.2250391155391011</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.06445148394238653</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7724124268866457</v>
+        <v>-0.7511658401121271</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07076143411152554</v>
+        <v>0.07802741913362515</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1980312180520203</v>
+        <v>-0.1882145447597603</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1801201041469452</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3661832990280762</v>
+        <v>-0.3435253558075625</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08553256906719456</v>
+        <v>-0.0790198360808788</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1494919008343797</v>
+        <v>-0.1368677626670483</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2874867776554774</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07647639085265484</v>
+        <v>0.1010751016665808</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2981527467435978</v>
+        <v>-0.2967853045863287</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08209017676762852</v>
+        <v>-0.06772105554412101</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3929266637149232</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5511788734070219</v>
+        <v>0.5709281049201239</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4168616080590723</v>
+        <v>-0.4136436665685496</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01247566048563543</v>
+        <v>-0.001189688283089363</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5046712519217925</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9522688096433122</v>
+        <v>0.9683103333624629</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5729457985249911</v>
+        <v>-0.5778318730664198</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03464742092059628</v>
+        <v>0.04490872638620561</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.622506886873905</v>
       </c>
       <c r="E18" t="n">
-        <v>1.387305710906046</v>
+        <v>1.402129223033731</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7885741049791157</v>
+        <v>-0.7950551220902407</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09884401183103637</v>
+        <v>0.1085728565458446</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7443050549917858</v>
       </c>
       <c r="E19" t="n">
-        <v>1.718275506619319</v>
+        <v>1.731699250793867</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9632999110091621</v>
+        <v>-0.9759490559242401</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2063650981729213</v>
+        <v>0.2153004360872803</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8643743250191934</v>
       </c>
       <c r="E20" t="n">
-        <v>2.03883639606321</v>
+        <v>2.044231754369723</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.128151711203334</v>
+        <v>-1.143438763045348</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2978166044445251</v>
+        <v>0.3102059231513083</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9787592874458176</v>
       </c>
       <c r="E21" t="n">
-        <v>2.269213194401779</v>
+        <v>2.269257108690505</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.380591170181911</v>
+        <v>-1.40036357868073</v>
       </c>
       <c r="G21" t="n">
-        <v>0.366608337733585</v>
+        <v>0.3776253349176852</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.082517191701859</v>
       </c>
       <c r="E22" t="n">
-        <v>2.524878523839677</v>
+        <v>2.525631165954784</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.653293413883412</v>
+        <v>-1.67221437311749</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4827219865694966</v>
+        <v>0.492547198751231</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.172816922014596</v>
       </c>
       <c r="E23" t="n">
-        <v>2.707781536382885</v>
+        <v>2.70789498162876</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.936598518629501</v>
+        <v>-1.951612935929008</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6113170521343804</v>
+        <v>0.6214935786259217</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.245429292739419</v>
       </c>
       <c r="E24" t="n">
-        <v>2.831158730558188</v>
+        <v>2.828628779591038</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.220943538129446</v>
+        <v>-2.235829262166159</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7202098500782717</v>
+        <v>0.7270476707852941</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.299371504987392</v>
       </c>
       <c r="E25" t="n">
-        <v>2.957522096366851</v>
+        <v>2.950723920503818</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.469204430551622</v>
+        <v>-2.482148777074246</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8217518840259953</v>
+        <v>0.829160590486454</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.333835278910984</v>
       </c>
       <c r="E26" t="n">
-        <v>3.016663664708403</v>
+        <v>3.008861559411442</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.696076624681597</v>
+        <v>-2.703979366890222</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9238568747583574</v>
+        <v>0.9300957533608133</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.349386399569085</v>
       </c>
       <c r="E27" t="n">
-        <v>3.009469040405483</v>
+        <v>3.002928251068037</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.90642545775779</v>
+        <v>-2.911071833473257</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9769699871309319</v>
+        <v>0.981685283882871</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.344774014339725</v>
       </c>
       <c r="E28" t="n">
-        <v>3.015464560657917</v>
+        <v>3.005991272706666</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.126676353020989</v>
+        <v>-3.129114815886628</v>
       </c>
       <c r="G28" t="n">
-        <v>1.023961935591663</v>
+        <v>1.026322328610678</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.320992004206863</v>
       </c>
       <c r="E29" t="n">
-        <v>3.009197015783654</v>
+        <v>2.999483419085764</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.279852746660511</v>
+        <v>-3.283201211175858</v>
       </c>
       <c r="G29" t="n">
-        <v>1.101237665494288</v>
+        <v>1.104385466106985</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.280069219194568</v>
       </c>
       <c r="E30" t="n">
-        <v>2.909213939085698</v>
+        <v>2.905769107103425</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.340536804393559</v>
+        <v>-3.340891473267088</v>
       </c>
       <c r="G30" t="n">
-        <v>1.095409263507284</v>
+        <v>1.09677731558523</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.225264253916338</v>
       </c>
       <c r="E31" t="n">
-        <v>2.847982782505607</v>
+        <v>2.84425738701203</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.415786682768366</v>
+        <v>-3.415336866269264</v>
       </c>
       <c r="G31" t="n">
-        <v>1.13917046214328</v>
+        <v>1.137366926702136</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.160574640583593</v>
       </c>
       <c r="E32" t="n">
-        <v>2.771698783623374</v>
+        <v>2.768739448499792</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.454929867000364</v>
+        <v>-3.451005637366167</v>
       </c>
       <c r="G32" t="n">
-        <v>1.093828349113153</v>
+        <v>1.095375717870062</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.089541223657589</v>
       </c>
       <c r="E33" t="n">
-        <v>2.594274078598717</v>
+        <v>2.590634071999885</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.423225885262662</v>
+        <v>-3.419629792952555</v>
       </c>
       <c r="G33" t="n">
-        <v>1.062793755318181</v>
+        <v>1.064005057782203</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.015232240616937</v>
       </c>
       <c r="E34" t="n">
-        <v>2.539558094687649</v>
+        <v>2.532767237872736</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.249590922362979</v>
+        <v>-3.242858617933035</v>
       </c>
       <c r="G34" t="n">
-        <v>1.010692501348332</v>
+        <v>1.011181047810407</v>
       </c>
     </row>
     <row r="35">
@@ -1238,10 +1238,10 @@
         <v>0.9396247376089886</v>
       </c>
       <c r="E35" t="n">
-        <v>2.417433677582385</v>
+        <v>2.408672776981577</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.085777512120971</v>
+        <v>-3.079332785290112</v>
       </c>
       <c r="G35" t="n">
         <v>0.9786765451844729</v>
@@ -1261,13 +1261,13 @@
         <v>0.8636876966733413</v>
       </c>
       <c r="E36" t="n">
-        <v>2.293621000043883</v>
+        <v>2.288589154460712</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.001530388883115</v>
+        <v>-3.003431511632539</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8884637878073444</v>
+        <v>0.8913944566591188</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7889476245347842</v>
       </c>
       <c r="E37" t="n">
-        <v>2.16255392597614</v>
+        <v>2.155233658013809</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.813469887097326</v>
+        <v>-2.815893711866723</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7807170308150627</v>
+        <v>0.7834378869540358</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7165057501968641</v>
       </c>
       <c r="E38" t="n">
-        <v>2.030519517715073</v>
+        <v>2.025874971761637</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.641784535640868</v>
+        <v>-2.649973940567565</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7165808220516207</v>
+        <v>0.7170486312106864</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6479061553827891</v>
       </c>
       <c r="E39" t="n">
-        <v>1.871209456789834</v>
+        <v>1.869685265018641</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.440599760732815</v>
+        <v>-2.449294789900535</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6460483751511218</v>
+        <v>0.6495956738070885</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5832072348324266</v>
       </c>
       <c r="E40" t="n">
-        <v>1.775314678388121</v>
+        <v>1.77543300299941</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.298402244235096</v>
+        <v>-2.311877831667168</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5612822094173534</v>
+        <v>0.5672661411769286</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5228667711161524</v>
       </c>
       <c r="E41" t="n">
-        <v>1.670110680697202</v>
+        <v>1.669271429845997</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.212592504223411</v>
+        <v>-2.227761841374813</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4860173879859663</v>
+        <v>0.4923782507237718</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4658179908893775</v>
       </c>
       <c r="E42" t="n">
-        <v>1.472128599262752</v>
+        <v>1.472897709236131</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.132938083681469</v>
+        <v>-2.148588648246824</v>
       </c>
       <c r="G42" t="n">
-        <v>0.455108437850405</v>
+        <v>0.4627483042473511</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4117491366192919</v>
       </c>
       <c r="E43" t="n">
-        <v>1.33338079411272</v>
+        <v>1.338236372620311</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.030970325101375</v>
+        <v>-2.047955396107455</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4258798191792845</v>
+        <v>0.4348694400338742</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3592494573364981</v>
       </c>
       <c r="E44" t="n">
-        <v>1.162061395062312</v>
+        <v>1.166913314045842</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.974731369260467</v>
+        <v>-1.992618512947457</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4053517189619751</v>
+        <v>0.4127439575641616</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3085452071651726</v>
       </c>
       <c r="E45" t="n">
-        <v>1.082852216614395</v>
+        <v>1.091558224354297</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.927974240260284</v>
+        <v>-1.945244754143082</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3622693620391993</v>
+        <v>0.3750197537866175</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2584977535155498</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9608174578486129</v>
+        <v>0.9699729771272781</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.904366650546073</v>
+        <v>-1.920845487390452</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3200848083525967</v>
+        <v>0.3318611567792482</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2097161028347577</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8239421091761976</v>
+        <v>0.8388412514677991</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.891375950052017</v>
+        <v>-1.907306468207999</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2854297254204488</v>
+        <v>0.2970999476493461</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1615052866376832</v>
       </c>
       <c r="E48" t="n">
-        <v>0.735104722925136</v>
+        <v>0.7507583370938749</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.945061777940057</v>
+        <v>-1.960817248861813</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2632170242939612</v>
+        <v>0.274196206396103</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1149360076759113</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7120326435651104</v>
+        <v>0.7260467909547506</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.896263244434799</v>
+        <v>-1.914822520707565</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2495798078825514</v>
+        <v>0.260288185204217</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.06960708265950594</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6606212098806631</v>
+        <v>0.6715357403910696</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.8924780767149</v>
+        <v>-1.910089536256</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2013661883062942</v>
+        <v>0.2133608883352215</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.026431329971199</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5889817569518665</v>
+        <v>0.5998895783348287</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.953038930471245</v>
+        <v>-1.967500759637618</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1801635158205014</v>
+        <v>0.1880186842163397</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.01528923961657647</v>
       </c>
       <c r="E52" t="n">
-        <v>0.477482158035554</v>
+        <v>0.4891432314543001</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.907770007922328</v>
+        <v>-1.921814041425128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1198887148615514</v>
+        <v>0.129965214362106</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.05515975429089685</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4361588123445196</v>
+        <v>0.4515794368147407</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.916302798190033</v>
+        <v>-1.931051899995154</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1259122914651152</v>
+        <v>0.1365133227476732</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.09398365040679023</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3244262237296893</v>
+        <v>0.3409489748627942</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.869153490194701</v>
+        <v>-1.88183435098497</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09176222285331467</v>
+        <v>0.1006463274308269</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1312868783344943</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3006234593989196</v>
+        <v>0.3166497351011516</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.883553717372723</v>
+        <v>-1.896308378564878</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1071133163663865</v>
+        <v>0.1154613006690372</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1675782443097096</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2649132136959976</v>
+        <v>0.281415227526093</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.837029578071057</v>
+        <v>-1.847944108581464</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07592319279884435</v>
+        <v>0.08254632142765152</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2022276013266933</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2550123713503464</v>
+        <v>0.2723816923827775</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.841212414072196</v>
+        <v>-1.849464640828597</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05212652767484212</v>
+        <v>0.05793724196222087</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2355543130056712</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1944753045003946</v>
+        <v>0.2117866830685347</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.840390850920616</v>
+        <v>-1.845649586995538</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02546262544944727</v>
+        <v>0.02993212416865704</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2667195341246859</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1652552247187487</v>
+        <v>0.1836467728054096</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.876807384767212</v>
+        <v>-1.881572695014645</v>
       </c>
       <c r="G59" t="n">
-        <v>0.003431070763953924</v>
+        <v>0.009711423972428676</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2959168810718888</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1597281235460578</v>
+        <v>0.1762386762656277</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.81309141135005</v>
+        <v>-1.816783261206406</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.002465642338846301</v>
+        <v>0.001550685317539661</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3223151185840315</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1280299360547844</v>
+        <v>0.1434572696524498</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.838848971449797</v>
+        <v>-1.842660975679473</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.02230758179481412</v>
+        <v>-0.01830528231399337</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3460422617923595</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1482055021209334</v>
+        <v>0.1645769929262048</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.786285397606973</v>
+        <v>-1.791425809070605</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.04558215481952001</v>
+        <v>-0.04362735905054248</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3663689569321636</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09780897644259491</v>
+        <v>0.1150002006374157</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.824690272859768</v>
+        <v>-1.832528363476657</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.07332744640478916</v>
+        <v>-0.06845905956298617</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3829022656323241</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1028603394874223</v>
+        <v>0.1160687816630783</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.790328561773135</v>
+        <v>-1.797347528921152</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.04949113643679832</v>
+        <v>-0.04620122430641929</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3952003405832263</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0990397963682725</v>
+        <v>0.1113669031660275</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.804633641325585</v>
+        <v>-1.814225863808801</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.09031739677628307</v>
+        <v>-0.08561124883449506</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4030495706175674</v>
       </c>
       <c r="E66" t="n">
-        <v>0.09680077756393038</v>
+        <v>0.1086911811571338</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.823639989454408</v>
+        <v>-1.831038327263361</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.08186145651384799</v>
+        <v>-0.07764812447887241</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4068497989765033</v>
       </c>
       <c r="E67" t="n">
-        <v>0.105156080914702</v>
+        <v>0.1153143097859409</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.784141526428203</v>
+        <v>-1.79081344871115</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.09947169621359467</v>
+        <v>-0.09558955110609328</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4067130693689765</v>
       </c>
       <c r="E68" t="n">
-        <v>0.01457066200408045</v>
+        <v>0.02557912029870615</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.816981485426349</v>
+        <v>-1.822476260803172</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1402162271823952</v>
+        <v>-0.1344256402773491</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4027402547878164</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.01113566475881994</v>
+        <v>0.0009669912298917697</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.836904544332324</v>
+        <v>-1.842209024458002</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1436860659124149</v>
+        <v>-0.1361352479342739</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3952108352753467</v>
       </c>
       <c r="E70" t="n">
-        <v>0.06125033107831632</v>
+        <v>0.07139026232925279</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.780802820643684</v>
+        <v>-1.785620584069317</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1371074614930103</v>
+        <v>-0.1305959483480481</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.384156437384993</v>
       </c>
       <c r="E71" t="n">
-        <v>0.06951719593095949</v>
+        <v>0.08068362368086295</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.763298707141692</v>
+        <v>-1.7667032843593</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1795237850367773</v>
+        <v>-0.173477031447497</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3696343877658638</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1237763492551435</v>
+        <v>0.1340913277403066</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.718506132641314</v>
+        <v>-1.718982480689855</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1748572819389779</v>
+        <v>-0.1695174264140486</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3514643178951394</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1581063444665847</v>
+        <v>0.1672606439038963</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.676744253983698</v>
+        <v>-1.678722836659069</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1549092162852559</v>
+        <v>-0.1487441380846865</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3297657447831491</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2552953745443575</v>
+        <v>0.2631017492860558</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.599507559004385</v>
+        <v>-1.60099576545565</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1827972293088841</v>
+        <v>-0.175539783176259</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3042634739478893</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3522020113487959</v>
+        <v>0.3621321298869311</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.54067400060459</v>
+        <v>-1.543238717050316</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1613085040256965</v>
+        <v>-0.156608455290676</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2755793888370157</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4598212949196372</v>
+        <v>0.4650361167058331</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.536956534079811</v>
+        <v>-1.539305338605968</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1759953939217898</v>
+        <v>-0.1704079106021008</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2437541904210408</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5822293251395887</v>
+        <v>0.5908298166024131</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.457582677049172</v>
+        <v>-1.462380313092472</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.19892780144684</v>
+        <v>-0.1927316172917565</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2095343101304444</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7605774500688418</v>
+        <v>0.7657629956625538</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.414934583648241</v>
+        <v>-1.417637142166911</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.199864639606325</v>
+        <v>-0.1910146905867107</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1730674326252069</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9624044714495115</v>
+        <v>0.9701187481690209</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.361052971222964</v>
+        <v>-1.360300939028533</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.180398411287234</v>
+        <v>-0.1717491261702698</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1351847992246118</v>
       </c>
       <c r="E80" t="n">
-        <v>1.138561761307886</v>
+        <v>1.143021501296267</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.336593932244013</v>
+        <v>-1.333942607062189</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1878528617984488</v>
+        <v>-0.178677215137451</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.09619469296212288</v>
       </c>
       <c r="E81" t="n">
-        <v>1.306930364124187</v>
+        <v>1.315605875830251</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.285640548987804</v>
+        <v>-1.282823325381905</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1213715080329104</v>
+        <v>-0.115155806416171</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.05733233274825436</v>
       </c>
       <c r="E82" t="n">
-        <v>1.539311971727227</v>
+        <v>1.547856350487791</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.307292123091683</v>
+        <v>-1.301649746911087</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.08853398871747174</v>
+        <v>-0.08266899148986243</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.01946528798479226</v>
       </c>
       <c r="E83" t="n">
-        <v>1.742033746740686</v>
+        <v>1.742278324932062</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.225929924654846</v>
+        <v>-1.217851525291318</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.07253149992163295</v>
+        <v>-0.06757284481967124</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.01605737757990473</v>
       </c>
       <c r="E84" t="n">
-        <v>1.958074359572293</v>
+        <v>1.957166797605292</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.138294692057654</v>
+        <v>-1.131583734851396</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09154821670196066</v>
+        <v>-0.08618091474657774</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.04809212521716601</v>
       </c>
       <c r="E85" t="n">
-        <v>2.070238162105584</v>
+        <v>2.066948859895882</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.063236633735685</v>
+        <v>-1.053799941025039</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.06082773205551447</v>
+        <v>-0.0563734813532234</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.07465217641165676</v>
       </c>
       <c r="E86" t="n">
-        <v>2.178748539785154</v>
+        <v>2.17479747364118</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.002505002189851</v>
+        <v>-0.9887311635468492</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06547532761233467</v>
+        <v>-0.06140715669842512</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.09480511706509399</v>
       </c>
       <c r="E87" t="n">
-        <v>2.308623828850532</v>
+        <v>2.302871057027444</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8610180432805431</v>
+        <v>-0.8501523064242764</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.06387001639113378</v>
+        <v>-0.05994883636032051</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1074410194736217</v>
       </c>
       <c r="E88" t="n">
-        <v>2.397973548470062</v>
+        <v>2.38829410733007</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7842930717490211</v>
+        <v>-0.7737804789645916</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.04854514946716208</v>
+        <v>-0.04519180558640126</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.112531900325122</v>
       </c>
       <c r="E89" t="n">
-        <v>2.431191048367115</v>
+        <v>2.420122207925491</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7314464947121856</v>
+        <v>-0.7205459923773444</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.04560960124997367</v>
+        <v>-0.04031183025174005</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1106651329941821</v>
       </c>
       <c r="E90" t="n">
-        <v>2.440169080728846</v>
+        <v>2.432101050016823</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6492255279624869</v>
+        <v>-0.6383671101543412</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05156669649977196</v>
+        <v>-0.04798768196861435</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1025537956123382</v>
       </c>
       <c r="E91" t="n">
-        <v>2.384128349107881</v>
+        <v>2.37490634847545</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5061375272767158</v>
+        <v>-0.4957487483896661</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04252035302224476</v>
+        <v>-0.03810391740191207</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08857797259203699</v>
       </c>
       <c r="E92" t="n">
-        <v>2.328443811162137</v>
+        <v>2.315579364248167</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4270826587600163</v>
+        <v>-0.4176496255734308</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03847596901472839</v>
+        <v>-0.03298363332061213</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06892502719044145</v>
       </c>
       <c r="E93" t="n">
-        <v>2.233623103072177</v>
+        <v>2.225516037436841</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3399213345286583</v>
+        <v>-0.3302851977567157</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03695665660894898</v>
+        <v>-0.03139905940242067</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04509599049346176</v>
       </c>
       <c r="E94" t="n">
-        <v>2.126681441373202</v>
+        <v>2.116629948620394</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2561566585461102</v>
+        <v>-0.2467144765493736</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08582594091271037</v>
+        <v>-0.08312460223539322</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.01915903163221365</v>
       </c>
       <c r="E95" t="n">
-        <v>1.974906340488509</v>
+        <v>1.968516201558219</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1809015958455511</v>
+        <v>-0.1720919015906022</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0920831171354687</v>
+        <v>-0.09034240352402974</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.00647866521326437</v>
       </c>
       <c r="E96" t="n">
-        <v>1.803915688682868</v>
+        <v>1.801939545690204</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.07200757806030637</v>
+        <v>-0.06443175333441874</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0809819508979773</v>
+        <v>-0.08087643462089988</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02941519527265195</v>
       </c>
       <c r="E97" t="n">
-        <v>1.670536405329572</v>
+        <v>1.670583369221682</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.00399532339613043</v>
+        <v>0.005327924068640384</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.08632851555035077</v>
+        <v>-0.08420050230917679</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.04823823037467839</v>
       </c>
       <c r="E98" t="n">
-        <v>1.502969238282517</v>
+        <v>1.499370706289704</v>
       </c>
       <c r="F98" t="n">
-        <v>0.03576052615566148</v>
+        <v>0.04473367915197891</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1090505004419229</v>
+        <v>-0.1068590554503672</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.06178994426185346</v>
       </c>
       <c r="E99" t="n">
-        <v>1.413580483739675</v>
+        <v>1.411223140324044</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08063909947146033</v>
+        <v>0.08917127981848892</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1006451835956579</v>
+        <v>-0.09849216360673729</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.07318167807450596</v>
       </c>
       <c r="E100" t="n">
-        <v>1.27148360415362</v>
+        <v>1.27235396095934</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1226046916351105</v>
+        <v>0.1295699857635733</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1327934925463713</v>
+        <v>-0.1298341574227898</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.08422794941378213</v>
       </c>
       <c r="E101" t="n">
-        <v>1.191290013733432</v>
+        <v>1.195008700099565</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1524932444784723</v>
+        <v>0.1567010872273571</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1751988375179568</v>
+        <v>-0.1745492719972201</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.09883926069037456</v>
       </c>
       <c r="E102" t="n">
-        <v>1.112087544412959</v>
+        <v>1.112804201208138</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1708494171658818</v>
+        <v>0.1750950749967251</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1804423255759598</v>
+        <v>-0.1779544591355045</v>
       </c>
     </row>
   </sheetData>
